--- a/Mama.xlsx
+++ b/Mama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anayak21\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFC972C-CE0E-49E7-AD01-57CCEDA4EA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CB8F4A-BA95-4C49-9E76-990C7D1D1E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{617AA182-ABC5-445E-A8E0-2BB5BA754851}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="10th" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'10th'!$A$1:$K$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'10th'!$A$1:$K$143</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="178">
   <si>
     <t>SL No</t>
   </si>
@@ -284,6 +284,9 @@
     <t>Sukuta Bhai</t>
   </si>
   <si>
+    <t>Santi Mausi</t>
+  </si>
+  <si>
     <t>Berhampur</t>
   </si>
   <si>
@@ -519,6 +522,57 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Ada Mamu</t>
+  </si>
+  <si>
+    <t>Kabuli Mamu</t>
+  </si>
+  <si>
+    <t>Medhi Mausi</t>
+  </si>
+  <si>
+    <t>Paru Mausi</t>
+  </si>
+  <si>
+    <t>Uma Mausi(Pua)</t>
+  </si>
+  <si>
+    <t>Tuni Mausi(Pua)</t>
+  </si>
+  <si>
+    <t>Kuni Mausi(Pua)</t>
+  </si>
+  <si>
+    <t>Pathuria Sahi</t>
+  </si>
+  <si>
+    <t>Runa Nana</t>
+  </si>
+  <si>
+    <t>Muna Nana</t>
+  </si>
+  <si>
+    <t>Nini Nana</t>
+  </si>
+  <si>
+    <t>Runu Mausi</t>
+  </si>
+  <si>
+    <t>Jhunu Mausi</t>
+  </si>
+  <si>
+    <t>Kunu Mausi</t>
+  </si>
+  <si>
+    <t>Rina Mausi</t>
+  </si>
+  <si>
+    <t>Daspala</t>
+  </si>
+  <si>
+    <t>Sukanti Mausi</t>
   </si>
 </sst>
 </file>
@@ -583,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -594,6 +648,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -908,17 +963,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FC76D5-7BEF-43B1-B5F3-CD099DF7268C}">
-  <dimension ref="A1:K130"/>
+  <dimension ref="A1:K146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -959,13 +1014,13 @@
         <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -994,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>7</v>
@@ -1021,7 +1076,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>7</v>
@@ -1077,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1135,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1164,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1193,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1245,7 +1300,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1322,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1358,7 +1413,9 @@
       <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2">
+        <v>8341263066</v>
+      </c>
       <c r="K16" s="2" t="s">
         <v>8</v>
       </c>
@@ -1699,8 +1756,12 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>7</v>
+      </c>
       <c r="I30" s="2" t="s">
         <v>41</v>
       </c>
@@ -2182,7 +2243,7 @@
         <v>2</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>20</v>
@@ -2346,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -2519,17 +2580,13 @@
       <c r="B62" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="2">
-        <v>1</v>
-      </c>
-      <c r="D62" s="2">
-        <v>1</v>
-      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
       <c r="E62" s="2">
         <v>2</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -2548,17 +2605,13 @@
       <c r="B63" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C63" s="2">
-        <v>1</v>
-      </c>
-      <c r="D63" s="2">
-        <v>1</v>
-      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
       <c r="E63" s="2">
         <v>2</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -2713,7 +2766,7 @@
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2" t="s">
@@ -2725,7 +2778,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -2738,7 +2791,7 @@
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2" t="s">
@@ -2750,7 +2803,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C71" s="2">
         <v>1</v>
@@ -2775,7 +2828,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -2800,7 +2853,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C73" s="2">
         <v>1</v>
@@ -2812,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G73" s="2">
         <v>1</v>
@@ -2833,7 +2886,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C74" s="2">
         <v>1</v>
@@ -2847,7 +2900,7 @@
         <v>3</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>69</v>
@@ -2862,7 +2915,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C75" s="2">
         <v>1</v>
@@ -2895,7 +2948,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C76" s="2">
         <v>1</v>
@@ -2907,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -2924,7 +2977,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C77" s="2">
         <v>1</v>
@@ -2937,7 +2990,7 @@
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J77" s="2"/>
       <c r="K77" s="2" t="s">
@@ -2949,7 +3002,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
@@ -2974,7 +3027,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2">
@@ -2984,12 +3037,12 @@
         <v>1</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J79" s="2"/>
       <c r="K79" s="2" t="s">
@@ -3001,7 +3054,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C80" s="2">
         <v>1</v>
@@ -3014,7 +3067,7 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="2" t="s">
@@ -3026,7 +3079,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -3055,7 +3108,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -3080,7 +3133,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -3105,7 +3158,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -3143,7 +3196,7 @@
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2" t="s">
@@ -3155,7 +3208,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C86" s="2">
         <v>1</v>
@@ -3168,7 +3221,7 @@
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="2" t="s">
@@ -3180,7 +3233,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C87" s="2">
         <v>1</v>
@@ -3193,7 +3246,7 @@
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="2" t="s">
@@ -3205,7 +3258,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C88" s="2">
         <v>1</v>
@@ -3218,7 +3271,7 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J88" s="2"/>
       <c r="K88" s="2" t="s">
@@ -3230,7 +3283,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C89" s="2">
         <v>1</v>
@@ -3255,7 +3308,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C90" s="2">
         <v>1</v>
@@ -3280,7 +3333,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C91" s="2">
         <v>1</v>
@@ -3293,7 +3346,7 @@
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J91" s="2"/>
       <c r="K91" s="2" t="s">
@@ -3305,7 +3358,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C92" s="2">
         <v>1</v>
@@ -3318,7 +3371,7 @@
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J92" s="2"/>
       <c r="K92" s="2" t="s">
@@ -3330,7 +3383,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C93" s="2">
         <v>1</v>
@@ -3355,7 +3408,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C94" s="2">
         <v>1</v>
@@ -3368,7 +3421,7 @@
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J94" s="2"/>
       <c r="K94" s="2" t="s">
@@ -3380,7 +3433,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C95" s="2">
         <v>1</v>
@@ -3405,7 +3458,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C96" s="2">
         <v>1</v>
@@ -3430,7 +3483,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C97" s="2">
         <v>1</v>
@@ -3443,7 +3496,7 @@
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J97" s="2"/>
       <c r="K97" s="2" t="s">
@@ -3455,7 +3508,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C98" s="2">
         <v>1</v>
@@ -3468,7 +3521,7 @@
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2" t="s">
@@ -3480,7 +3533,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2">
@@ -3491,7 +3544,7 @@
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J99" s="2"/>
       <c r="K99" s="2" t="s">
@@ -3503,7 +3556,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C100" s="2">
         <v>1</v>
@@ -3519,7 +3572,7 @@
         <v>2</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>20</v>
@@ -3534,7 +3587,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C101" s="2">
         <v>1</v>
@@ -3547,7 +3600,7 @@
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J101" s="2"/>
       <c r="K101" s="2" t="s">
@@ -3559,7 +3612,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C102" s="2">
         <v>1</v>
@@ -3572,7 +3625,7 @@
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J102" s="2"/>
       <c r="K102" s="2" t="s">
@@ -3584,7 +3637,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C103" s="2">
         <v>1</v>
@@ -3617,7 +3670,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C104" s="2">
         <v>1</v>
@@ -3630,7 +3683,7 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J104" s="2"/>
       <c r="K104" s="2" t="s">
@@ -3642,7 +3695,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C105" s="2">
         <v>1</v>
@@ -3655,7 +3708,7 @@
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J105" s="2"/>
       <c r="K105" s="2" t="s">
@@ -3667,7 +3720,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C106" s="2">
         <v>1</v>
@@ -3717,7 +3770,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C108" s="2">
         <v>1</v>
@@ -3742,7 +3795,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C109" s="2">
         <v>1</v>
@@ -3767,7 +3820,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -3775,7 +3828,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
@@ -3792,7 +3845,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C111" s="2">
         <v>1</v>
@@ -3817,7 +3870,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C112" s="2">
         <v>1</v>
@@ -3842,7 +3895,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C113" s="2">
         <v>1</v>
@@ -3855,7 +3908,7 @@
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J113" s="2"/>
       <c r="K113" s="2" t="s">
@@ -3867,7 +3920,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C114" s="2">
         <v>1</v>
@@ -3880,7 +3933,7 @@
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J114" s="2"/>
       <c r="K114" s="2" t="s">
@@ -3892,7 +3945,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -3900,12 +3953,12 @@
         <v>1</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J115" s="2"/>
       <c r="K115" s="2" t="s">
@@ -3917,7 +3970,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C116" s="2">
         <v>1</v>
@@ -3942,7 +3995,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C117" s="2">
         <v>1</v>
@@ -3955,7 +4008,7 @@
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J117" s="2"/>
       <c r="K117" s="2" t="s">
@@ -3967,7 +4020,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C118" s="2">
         <v>1</v>
@@ -3980,7 +4033,7 @@
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J118" s="2"/>
       <c r="K118" s="2" t="s">
@@ -3992,7 +4045,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C119" s="2">
         <v>1</v>
@@ -4005,7 +4058,7 @@
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J119" s="2"/>
       <c r="K119" s="2" t="s">
@@ -4017,7 +4070,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C120" s="2">
         <v>2</v>
@@ -4034,7 +4087,7 @@
         <v>25</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J120" s="2"/>
       <c r="K120" s="2" t="s">
@@ -4046,7 +4099,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C121" s="2">
         <v>1</v>
@@ -4059,7 +4112,7 @@
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J121" s="2"/>
       <c r="K121" s="2" t="s">
@@ -4071,7 +4124,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C122" s="2">
         <v>2</v>
@@ -4096,7 +4149,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C123" s="2">
         <v>1</v>
@@ -4108,7 +4161,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
@@ -4125,7 +4178,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C124" s="2">
         <v>1</v>
@@ -4150,7 +4203,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C125" s="2">
         <v>1</v>
@@ -4175,7 +4228,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C126" s="2">
         <v>1</v>
@@ -4200,7 +4253,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -4208,7 +4261,7 @@
         <v>1</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
@@ -4225,7 +4278,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C128" s="2">
         <v>1</v>
@@ -4250,7 +4303,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C129" s="2">
         <v>1</v>
@@ -4263,7 +4316,7 @@
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="J129" s="2"/>
       <c r="K129" s="2" t="s">
@@ -4271,38 +4324,436 @@
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="2">
+        <v>128</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C130" s="2">
+        <v>1</v>
+      </c>
+      <c r="D130" s="2">
+        <v>1</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A131" s="2">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C131" s="2">
+        <v>1</v>
+      </c>
+      <c r="D131" s="2">
+        <v>1</v>
+      </c>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A132" s="2">
+        <v>130</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C132" s="2">
+        <v>1</v>
+      </c>
+      <c r="D132" s="2">
+        <v>1</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A133" s="2">
+        <v>131</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C133" s="2">
+        <v>1</v>
+      </c>
+      <c r="D133" s="2">
+        <v>1</v>
+      </c>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A134" s="2">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C134" s="2">
+        <v>1</v>
+      </c>
+      <c r="D134" s="2">
+        <v>1</v>
+      </c>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A135" s="2">
+        <v>133</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2">
+        <v>1</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A136" s="2">
+        <v>134</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2">
+        <v>1</v>
+      </c>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A137" s="2">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C137" s="2">
+        <v>1</v>
+      </c>
+      <c r="D137" s="2">
+        <v>1</v>
+      </c>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A138" s="2">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C138" s="2">
+        <v>1</v>
+      </c>
+      <c r="D138" s="2">
+        <v>1</v>
+      </c>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A139" s="2">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C139" s="2">
+        <v>1</v>
+      </c>
+      <c r="D139" s="2">
+        <v>1</v>
+      </c>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A140" s="2">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C140" s="2">
+        <v>1</v>
+      </c>
+      <c r="D140" s="2">
+        <v>1</v>
+      </c>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A141" s="2">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C141" s="2">
+        <v>1</v>
+      </c>
+      <c r="D141" s="2">
+        <v>1</v>
+      </c>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A142" s="2">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C142" s="2">
+        <v>1</v>
+      </c>
+      <c r="D142" s="2">
+        <v>1</v>
+      </c>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A143" s="2">
+        <v>141</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C143" s="2">
+        <v>1</v>
+      </c>
+      <c r="D143" s="2">
+        <v>1</v>
+      </c>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B130" s="1"/>
-      <c r="C130" s="2">
-        <f>SUM(C3:C129)</f>
-        <v>117</v>
-      </c>
-      <c r="D130" s="2">
-        <f>SUM(D3:D129)</f>
-        <v>121</v>
-      </c>
-      <c r="E130" s="2">
-        <f>SUM(E3:E129)</f>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A144" s="6">
+        <v>142</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C144" s="6">
+        <v>1</v>
+      </c>
+      <c r="D144" s="6">
+        <v>1</v>
+      </c>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2">
-        <f>SUM(G3:G129)</f>
-        <v>21</v>
-      </c>
-      <c r="H130" s="2"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
-      <c r="K130" s="1"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A145" s="6">
+        <v>143</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C145" s="6">
+        <v>1</v>
+      </c>
+      <c r="D145" s="6">
+        <v>1</v>
+      </c>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J145" s="2"/>
+      <c r="K145" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B146" s="1"/>
+      <c r="C146" s="2">
+        <f>SUM(C3:C145)</f>
+        <v>129</v>
+      </c>
+      <c r="D146" s="2">
+        <f>SUM(D3:D145)</f>
+        <v>134</v>
+      </c>
+      <c r="E146" s="2">
+        <f>SUM(E3:E143)</f>
+        <v>29</v>
+      </c>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2">
+        <f>SUM(G3:G143)</f>
+        <v>22</v>
+      </c>
+      <c r="H146" s="2"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="I130:K130"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="I146:K146"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>

--- a/Mama.xlsx
+++ b/Mama.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anayak21\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CB8F4A-BA95-4C49-9E76-990C7D1D1E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6C2CCC-64C6-4C6A-9572-63FB4F695320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{617AA182-ABC5-445E-A8E0-2BB5BA754851}"/>
   </bookViews>
   <sheets>
     <sheet name="10th" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'10th'!$A$1:$K$143</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="178">
   <si>
     <t>SL No</t>
   </si>
@@ -966,7 +967,7 @@
   <dimension ref="A1:K146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="P137" sqref="P137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4765,4 +4766,1319 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8EBA61-1C14-44D8-AB23-77DB5B27CB2E}">
+  <dimension ref="A1:K46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>11</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>22</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="2">
+        <v>8341263066</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>7</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>20</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>13</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>13</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>9</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>3</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>21</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2">
+        <v>3</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>12</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>4</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>5</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2">
+        <v>2</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <v>12</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>18</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>25</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>